--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_206__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_206__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,40 +5426,40 @@
                   <c:v>96.53176879882812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.32785034179688</c:v>
+                  <c:v>49.32785797119141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.9760856628418</c:v>
+                  <c:v>28.97608757019043</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>51.0013313293457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.3519287109375</c:v>
+                  <c:v>95.35194396972656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.33152770996094</c:v>
+                  <c:v>97.33154296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.23097229003906</c:v>
+                  <c:v>88.23095703125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>96.80668640136719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.70782089233398</c:v>
+                  <c:v>49.70781707763672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.24911499023438</c:v>
+                  <c:v>97.24913024902344</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.52154541015625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.90257263183594</c:v>
+                  <c:v>76.90255737304688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.87664031982422</c:v>
+                  <c:v>37.87663650512695</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72.63529205322266</c:v>
@@ -5480,7 +5480,7 @@
                   <c:v>50.7428092956543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.93149185180664</c:v>
+                  <c:v>63.93149948120117</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>53.73991012573242</c:v>
@@ -5516,19 +5516,19 @@
                   <c:v>96.93992614746094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.55897521972656</c:v>
+                  <c:v>84.5589599609375</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>83.22865295410156</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.20890808105469</c:v>
+                  <c:v>37.20891189575195</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>89.36239624023438</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.61308288574219</c:v>
+                  <c:v>96.61309814453125</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>59.03643417358398</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>93.93560791015625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.74503326416016</c:v>
+                  <c:v>38.74502944946289</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>87.92999267578125</c:v>
@@ -5552,7 +5552,7 @@
                   <c:v>91.63458251953125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.24679565429688</c:v>
+                  <c:v>96.24678039550781</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>82.84275817871094</c:v>
@@ -5585,10 +5585,10 @@
                   <c:v>94.78140258789062</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>78.79780578613281</c:v>
+                  <c:v>78.79779052734375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.31367492675781</c:v>
+                  <c:v>51.31367111206055</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.73881530761719</c:v>
@@ -5603,10 +5603,10 @@
                   <c:v>97.7432861328125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.50762939453125</c:v>
+                  <c:v>96.50761413574219</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.02532958984375</c:v>
+                  <c:v>97.02534484863281</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>86.84848022460938</c:v>
@@ -5615,28 +5615,28 @@
                   <c:v>95.0650634765625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>88.96229553222656</c:v>
+                  <c:v>88.96231079101562</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.07611083984375</c:v>
+                  <c:v>97.07612609863281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>61.25702667236328</c:v>
+                  <c:v>61.25703048706055</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.78352355957031</c:v>
+                  <c:v>82.78350830078125</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>67.75662994384766</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.68058776855469</c:v>
+                  <c:v>82.68057250976562</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.16319274902344</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.46966552734375</c:v>
+                  <c:v>97.46968078613281</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>28.16870880126953</c:v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>49.32785034179688</v>
+        <v>49.32785797119141</v>
       </c>
       <c r="G5">
         <v>101</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>28.9760856628418</v>
+        <v>28.97608757019043</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>95.3519287109375</v>
+        <v>95.35194396972656</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>97.33152770996094</v>
+        <v>97.33154296875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>88.23097229003906</v>
+        <v>88.23095703125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.70782089233398</v>
+        <v>49.70781707763672</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>97.3323</v>
       </c>
       <c r="F13">
-        <v>97.24911499023438</v>
+        <v>97.24913024902344</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>76.90257263183594</v>
+        <v>76.90255737304688</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>37.87664031982422</v>
+        <v>37.87663650512695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.93149185180664</v>
+        <v>63.93149948120117</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>84.55897521972656</v>
+        <v>84.5589599609375</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>37.20890808105469</v>
+        <v>37.20891189575195</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.61308288574219</v>
+        <v>96.61309814453125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>38.74503326416016</v>
+        <v>38.74502944946289</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>96.24679565429688</v>
+        <v>96.24678039550781</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>78.79780578613281</v>
+        <v>78.79779052734375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.31367492675781</v>
+        <v>51.31367111206055</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.50762939453125</v>
+        <v>96.50761413574219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.02532958984375</v>
+        <v>97.02534484863281</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>88.96229553222656</v>
+        <v>88.96231079101562</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.07611083984375</v>
+        <v>97.07612609863281</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>61.25702667236328</v>
+        <v>61.25703048706055</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.78352355957031</v>
+        <v>82.78350830078125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>82.68058776855469</v>
+        <v>82.68057250976562</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.46966552734375</v>
+        <v>97.46968078613281</v>
       </c>
     </row>
     <row r="76" spans="1:6">
